--- a/yieldFiles/A1/a1_det3.xlsx
+++ b/yieldFiles/A1/a1_det3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C707"/>
+  <dimension ref="A1:C848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,10 +2286,10 @@
         <v>2.48392</v>
       </c>
       <c r="B175" t="n">
-        <v>8.55807624e-13</v>
+        <v>1.73709666e-12</v>
       </c>
       <c r="C175" t="n">
-        <v>1.187769258e-14</v>
+        <v>1.502426088e-14</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>2.48392</v>
       </c>
       <c r="B176" t="n">
-        <v>1.73709666e-12</v>
+        <v>8.55807624e-13</v>
       </c>
       <c r="C176" t="n">
-        <v>1.502426088e-14</v>
+        <v>1.187769258e-14</v>
       </c>
     </row>
     <row r="177">
@@ -3551,10 +3551,10 @@
         <v>2.71393</v>
       </c>
       <c r="B290" t="n">
-        <v>2.36379906e-13</v>
+        <v>2.417914620000001e-13</v>
       </c>
       <c r="C290" t="n">
-        <v>8.1092439e-15</v>
+        <v>6.60941946e-15</v>
       </c>
     </row>
     <row r="291">
@@ -3562,10 +3562,10 @@
         <v>2.71393</v>
       </c>
       <c r="B291" t="n">
-        <v>2.417914620000001e-13</v>
+        <v>2.36379906e-13</v>
       </c>
       <c r="C291" t="n">
-        <v>6.60941946e-15</v>
+        <v>8.1092439e-15</v>
       </c>
     </row>
     <row r="292">
@@ -5473,2675 +5473,4226 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B465" t="n">
-        <v>1.79507304e-13</v>
+        <v>2.3479713e-13</v>
       </c>
       <c r="C465" t="n">
-        <v>7.6131045e-15</v>
+        <v>6.50146068e-15</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B466" t="n">
-        <v>1.7167833e-13</v>
+        <v>1.79507304e-13</v>
       </c>
       <c r="C466" t="n">
-        <v>8.4934035e-15</v>
+        <v>7.6131045e-15</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B467" t="n">
-        <v>2.95203744e-13</v>
+        <v>1.7167833e-13</v>
       </c>
       <c r="C467" t="n">
-        <v>7.48834074e-15</v>
+        <v>8.4934035e-15</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B468" t="n">
-        <v>2.27472786e-13</v>
+        <v>3.814185780000001e-13</v>
       </c>
       <c r="C468" t="n">
-        <v>8.87120316e-15</v>
+        <v>1.576268676e-14</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B469" t="n">
-        <v>2.78288226e-13</v>
+        <v>2.95203744e-13</v>
       </c>
       <c r="C469" t="n">
-        <v>8.99670384e-15</v>
+        <v>7.48834074e-15</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B470" t="n">
-        <v>3.77437608e-13</v>
+        <v>2.27472786e-13</v>
       </c>
       <c r="C470" t="n">
-        <v>1.091168658e-14</v>
+        <v>8.87120316e-15</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B471" t="n">
-        <v>3.2659173e-13</v>
+        <v>2.78288226e-13</v>
       </c>
       <c r="C471" t="n">
-        <v>1.121262228e-14</v>
+        <v>8.99670384e-15</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B472" t="n">
-        <v>3.4612011e-13</v>
+        <v>3.77437608e-13</v>
       </c>
       <c r="C472" t="n">
-        <v>1.090716894e-14</v>
+        <v>1.091168658e-14</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B473" t="n">
-        <v>3.45902238e-13</v>
+        <v>3.6978165e-13</v>
       </c>
       <c r="C473" t="n">
-        <v>1.191253608e-14</v>
+        <v>1.525166478e-14</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B474" t="n">
-        <v>3.19395546e-13</v>
+        <v>3.2659173e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>1.364681322e-14</v>
+        <v>1.121262228e-14</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B475" t="n">
-        <v>3.58133508e-13</v>
+        <v>3.4612011e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>1.047485322e-14</v>
+        <v>1.090716894e-14</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B476" t="n">
-        <v>3.44056734e-13</v>
+        <v>3.45902238e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>1.178397558e-14</v>
+        <v>1.191253608e-14</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B477" t="n">
-        <v>3.0410766e-13</v>
+        <v>3.19395546e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>1.116752598e-14</v>
+        <v>1.364681322e-14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B478" t="n">
-        <v>2.3543793e-13</v>
+        <v>2.87232192e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>7.94585592e-15</v>
+        <v>2.1525273e-14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B479" t="n">
-        <v>2.50306092e-13</v>
+        <v>3.58133508e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>1.234320174e-14</v>
+        <v>1.047485322e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B480" t="n">
-        <v>2.02824414e-13</v>
+        <v>3.44056734e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>1.117244412e-14</v>
+        <v>1.178397558e-14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B481" t="n">
-        <v>1.62109584e-13</v>
+        <v>3.0410766e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>4.96974042e-15</v>
+        <v>1.116752598e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B482" t="n">
-        <v>1.80037566e-13</v>
+        <v>2.3543793e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>3.872979180000001e-15</v>
+        <v>7.94585592e-15</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B483" t="n">
-        <v>1.386197784e-13</v>
+        <v>2.50306092e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>5.39092224e-15</v>
+        <v>1.234320174e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B484" t="n">
-        <v>2.49200712e-13</v>
+        <v>2.0528829e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>8.72503668e-15</v>
+        <v>1.20547296e-14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.8748</v>
       </c>
       <c r="B485" t="n">
-        <v>3.0309039e-13</v>
+        <v>1.92837546e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>1.152341028e-14</v>
+        <v>1.6609536e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B486" t="n">
-        <v>2.6880759e-13</v>
+        <v>2.02824414e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>7.05046608e-15</v>
+        <v>1.117244412e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87584</v>
       </c>
       <c r="B487" t="n">
-        <v>2.06078076e-13</v>
+        <v>1.62109584e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>6.1033797e-15</v>
+        <v>4.96974042e-15</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87591</v>
       </c>
       <c r="B488" t="n">
-        <v>9.1679256e-14</v>
+        <v>1.79132436e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>7.129156320000001e-15</v>
+        <v>1.305575532e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87602</v>
       </c>
       <c r="B489" t="n">
-        <v>7.07648256e-14</v>
+        <v>1.80037566e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>4.31040528e-15</v>
+        <v>3.872979180000001e-15</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87685</v>
       </c>
       <c r="B490" t="n">
-        <v>1.79550558e-13</v>
+        <v>2.25098622e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>6.56714268e-15</v>
+        <v>1.9939293e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87699</v>
       </c>
       <c r="B491" t="n">
-        <v>3.28390776e-13</v>
+        <v>1.386197784e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>9.448323660000001e-15</v>
+        <v>5.39092224e-15</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87795</v>
       </c>
       <c r="B492" t="n">
-        <v>1.72541808e-12</v>
+        <v>2.49200712e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>3.72642822e-14</v>
+        <v>8.72503668e-15</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87802</v>
       </c>
       <c r="B493" t="n">
-        <v>2.7980532e-12</v>
+        <v>3.43119564e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>3.7636587e-14</v>
+        <v>9.521310780000001e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B494" t="n">
-        <v>2.5616781e-12</v>
+        <v>1.89617526e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>2.52909342e-14</v>
+        <v>1.162582614e-14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B495" t="n">
-        <v>1.495289178e-12</v>
+        <v>2.6880759e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>3.47478606e-14</v>
+        <v>7.05046608e-15</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87894</v>
       </c>
       <c r="B496" t="n">
-        <v>2.62258614e-12</v>
+        <v>3.0309039e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>3.5457066e-14</v>
+        <v>1.152341028e-14</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.87999</v>
       </c>
       <c r="B497" t="n">
-        <v>1.62894564e-12</v>
+        <v>2.06078076e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>3.81870342e-14</v>
+        <v>6.1033797e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88082</v>
       </c>
       <c r="B498" t="n">
-        <v>7.058780460000001e-13</v>
+        <v>9.1679256e-14</v>
       </c>
       <c r="C498" t="n">
-        <v>1.68828372e-14</v>
+        <v>7.129156320000001e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88098</v>
       </c>
       <c r="B499" t="n">
-        <v>4.21066476e-13</v>
+        <v>1.202182452e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>8.39164446e-15</v>
+        <v>1.078841268e-14</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.88879</v>
       </c>
       <c r="B500" t="n">
-        <v>3.22325604e-13</v>
+        <v>7.07648256e-14</v>
       </c>
       <c r="C500" t="n">
-        <v>9.060863939999999e-15</v>
+        <v>4.31040528e-15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90444</v>
       </c>
       <c r="B501" t="n">
-        <v>2.33786268e-13</v>
+        <v>1.79550558e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>5.54934402e-15</v>
+        <v>6.56714268e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90481</v>
       </c>
       <c r="B502" t="n">
-        <v>1.96027128e-13</v>
+        <v>3.28390776e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>5.22000486e-15</v>
+        <v>9.448323660000001e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90576</v>
       </c>
       <c r="B503" t="n">
-        <v>1.66430178e-13</v>
+        <v>1.72541808e-12</v>
       </c>
       <c r="C503" t="n">
-        <v>4.87156986e-15</v>
+        <v>3.72642822e-14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B504" t="n">
-        <v>1.509623874e-13</v>
+        <v>2.5616781e-12</v>
       </c>
       <c r="C504" t="n">
-        <v>4.73970924e-15</v>
+        <v>2.52909342e-14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90595</v>
       </c>
       <c r="B505" t="n">
-        <v>1.187351136e-13</v>
+        <v>2.7980532e-12</v>
       </c>
       <c r="C505" t="n">
-        <v>4.09665042e-15</v>
+        <v>3.7636587e-14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90644</v>
       </c>
       <c r="B506" t="n">
-        <v>9.89816526e-14</v>
+        <v>1.495289178e-12</v>
       </c>
       <c r="C506" t="n">
-        <v>3.95564238e-15</v>
+        <v>3.47478606e-14</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90675</v>
       </c>
       <c r="B507" t="n">
-        <v>8.694999180000001e-14</v>
+        <v>2.62258614e-12</v>
       </c>
       <c r="C507" t="n">
-        <v>3.67069464e-15</v>
+        <v>3.5457066e-14</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90706</v>
       </c>
       <c r="B508" t="n">
-        <v>9.13098348e-14</v>
+        <v>1.62894564e-12</v>
       </c>
       <c r="C508" t="n">
-        <v>3.44202516e-15</v>
+        <v>3.81870342e-14</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90739</v>
       </c>
       <c r="B509" t="n">
-        <v>1.423404234e-13</v>
+        <v>7.058780460000001e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>5.56882434e-15</v>
+        <v>1.68828372e-14</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90788</v>
       </c>
       <c r="B510" t="n">
-        <v>3.5389782e-13</v>
+        <v>4.21066476e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>8.846740620000001e-15</v>
+        <v>8.39164446e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.9085</v>
       </c>
       <c r="B511" t="n">
-        <v>1.237974336e-12</v>
+        <v>3.22325604e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>2.0346201e-14</v>
+        <v>9.060863939999999e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90904</v>
       </c>
       <c r="B512" t="n">
-        <v>1.437852672e-12</v>
+        <v>2.33786268e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>1.75752216e-14</v>
+        <v>5.54934402e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.90949</v>
       </c>
       <c r="B513" t="n">
-        <v>1.196562636e-12</v>
+        <v>1.96027128e-13</v>
       </c>
       <c r="C513" t="n">
-        <v>2.31391278e-14</v>
+        <v>5.22000486e-15</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91001</v>
       </c>
       <c r="B514" t="n">
-        <v>7.94162664e-13</v>
+        <v>1.66430178e-13</v>
       </c>
       <c r="C514" t="n">
-        <v>1.63013112e-14</v>
+        <v>4.87156986e-15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91027</v>
       </c>
       <c r="B515" t="n">
-        <v>4.512577680000001e-13</v>
+        <v>1.509623874e-13</v>
       </c>
       <c r="C515" t="n">
-        <v>1.148568318e-14</v>
+        <v>4.73970924e-15</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.9115</v>
       </c>
       <c r="B516" t="n">
-        <v>2.24241552e-13</v>
+        <v>1.187351136e-13</v>
       </c>
       <c r="C516" t="n">
-        <v>6.19338006e-15</v>
+        <v>4.09665042e-15</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91247</v>
       </c>
       <c r="B517" t="n">
-        <v>1.75244382e-13</v>
+        <v>9.89816526e-14</v>
       </c>
       <c r="C517" t="n">
-        <v>4.7701152e-15</v>
+        <v>3.95564238e-15</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91341</v>
       </c>
       <c r="B518" t="n">
-        <v>1.053415926e-13</v>
+        <v>8.694999180000001e-14</v>
       </c>
       <c r="C518" t="n">
-        <v>2.51352198e-15</v>
+        <v>3.67069464e-15</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91393</v>
       </c>
       <c r="B519" t="n">
-        <v>8.48222154e-14</v>
+        <v>9.13098348e-14</v>
       </c>
       <c r="C519" t="n">
-        <v>3.51541278e-15</v>
+        <v>3.44202516e-15</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91445</v>
       </c>
       <c r="B520" t="n">
-        <v>8.072109539999999e-14</v>
+        <v>1.423404234e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>2.27584926e-15</v>
+        <v>5.56882434e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91504</v>
       </c>
       <c r="B521" t="n">
-        <v>6.73746732e-14</v>
+        <v>3.5389782e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>2.21381982e-15</v>
+        <v>8.846740620000001e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91537</v>
       </c>
       <c r="B522" t="n">
-        <v>6.30201168e-14</v>
+        <v>1.237974336e-12</v>
       </c>
       <c r="C522" t="n">
-        <v>1.90522656e-15</v>
+        <v>2.0346201e-14</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91549</v>
       </c>
       <c r="B523" t="n">
-        <v>5.7576681e-14</v>
+        <v>1.437852672e-12</v>
       </c>
       <c r="C523" t="n">
-        <v>2.2030704e-15</v>
+        <v>1.75752216e-14</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91566</v>
       </c>
       <c r="B524" t="n">
-        <v>5.67963468e-14</v>
+        <v>1.196562636e-12</v>
       </c>
       <c r="C524" t="n">
-        <v>2.24975268e-15</v>
+        <v>2.31391278e-14</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91585</v>
       </c>
       <c r="B525" t="n">
-        <v>5.0482224e-14</v>
+        <v>7.94162664e-13</v>
       </c>
       <c r="C525" t="n">
-        <v>2.33119836e-15</v>
+        <v>1.63013112e-14</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91604</v>
       </c>
       <c r="B526" t="n">
-        <v>5.17402746e-14</v>
+        <v>4.512577680000001e-13</v>
       </c>
       <c r="C526" t="n">
-        <v>2.06138952e-15</v>
+        <v>1.148568318e-14</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91648</v>
       </c>
       <c r="B527" t="n">
-        <v>5.25951018e-14</v>
+        <v>2.24241552e-13</v>
       </c>
       <c r="C527" t="n">
-        <v>2.29893408e-15</v>
+        <v>6.19338006e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91693</v>
       </c>
       <c r="B528" t="n">
-        <v>4.94910666e-14</v>
+        <v>1.75244382e-13</v>
       </c>
       <c r="C528" t="n">
-        <v>2.19256128e-15</v>
+        <v>4.7701152e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91745</v>
       </c>
       <c r="B529" t="n">
-        <v>4.43468844e-14</v>
+        <v>1.053415926e-13</v>
       </c>
       <c r="C529" t="n">
-        <v>2.54307888e-15</v>
+        <v>2.51352198e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91793</v>
       </c>
       <c r="B530" t="n">
-        <v>5.00658642e-14</v>
+        <v>8.48222154e-14</v>
       </c>
       <c r="C530" t="n">
-        <v>2.51683812e-15</v>
+        <v>3.51541278e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.9184</v>
       </c>
       <c r="B531" t="n">
-        <v>4.2479433e-14</v>
+        <v>8.072109539999999e-14</v>
       </c>
       <c r="C531" t="n">
-        <v>2.17250424e-15</v>
+        <v>2.27584926e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91892</v>
       </c>
       <c r="B532" t="n">
-        <v>5.12146584e-14</v>
+        <v>6.73746732e-14</v>
       </c>
       <c r="C532" t="n">
-        <v>2.46174534e-15</v>
+        <v>2.21381982e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91946</v>
       </c>
       <c r="B533" t="n">
-        <v>6.80210802e-14</v>
+        <v>6.30201168e-14</v>
       </c>
       <c r="C533" t="n">
-        <v>2.639295e-15</v>
+        <v>1.90522656e-15</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.91991</v>
       </c>
       <c r="B534" t="n">
-        <v>1.390518378e-13</v>
+        <v>5.7576681e-14</v>
       </c>
       <c r="C534" t="n">
-        <v>3.67433118e-15</v>
+        <v>2.2030704e-15</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92043</v>
       </c>
       <c r="B535" t="n">
-        <v>1.45932588e-13</v>
+        <v>5.67963468e-14</v>
       </c>
       <c r="C535" t="n">
-        <v>3.78714402e-15</v>
+        <v>2.24975268e-15</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92084</v>
       </c>
       <c r="B536" t="n">
-        <v>1.105405632e-13</v>
+        <v>5.0482224e-14</v>
       </c>
       <c r="C536" t="n">
-        <v>3.00387816e-15</v>
+        <v>2.33119836e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92143</v>
       </c>
       <c r="B537" t="n">
-        <v>1.094380668e-13</v>
+        <v>5.17402746e-14</v>
       </c>
       <c r="C537" t="n">
-        <v>3.52446408e-15</v>
+        <v>2.06138952e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.9219</v>
       </c>
       <c r="B538" t="n">
-        <v>1.427668758e-13</v>
+        <v>5.25951018e-14</v>
       </c>
       <c r="C538" t="n">
-        <v>3.79517004e-15</v>
+        <v>2.29893408e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92247</v>
       </c>
       <c r="B539" t="n">
-        <v>2.80417284e-13</v>
+        <v>4.94910666e-14</v>
       </c>
       <c r="C539" t="n">
-        <v>9.093336479999999e-15</v>
+        <v>2.19256128e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92297</v>
       </c>
       <c r="B540" t="n">
-        <v>3.147689700000001e-13</v>
+        <v>4.43468844e-14</v>
       </c>
       <c r="C540" t="n">
-        <v>7.63212024e-15</v>
+        <v>2.54307888e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92346</v>
       </c>
       <c r="B541" t="n">
-        <v>4.46347638e-13</v>
+        <v>5.00658642e-14</v>
       </c>
       <c r="C541" t="n">
-        <v>8.45418654e-15</v>
+        <v>2.51683812e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92583</v>
       </c>
       <c r="B542" t="n">
-        <v>6.57307008e-13</v>
+        <v>4.2479433e-14</v>
       </c>
       <c r="C542" t="n">
-        <v>1.131255504e-14</v>
+        <v>2.17250424e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.92979</v>
       </c>
       <c r="B543" t="n">
-        <v>9.22282614e-13</v>
+        <v>5.12146584e-14</v>
       </c>
       <c r="C543" t="n">
-        <v>1.071944658e-14</v>
+        <v>2.46174534e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.93966</v>
       </c>
       <c r="B544" t="n">
-        <v>1.133690544e-12</v>
+        <v>6.80210802e-14</v>
       </c>
       <c r="C544" t="n">
-        <v>1.71976302e-14</v>
+        <v>2.639295e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.95006</v>
       </c>
       <c r="B545" t="n">
-        <v>1.219011462e-12</v>
+        <v>1.390518378e-13</v>
       </c>
       <c r="C545" t="n">
-        <v>1.69977006e-14</v>
+        <v>3.67433118e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.9597</v>
       </c>
       <c r="B546" t="n">
-        <v>1.318140018e-12</v>
+        <v>1.45932588e-13</v>
       </c>
       <c r="C546" t="n">
-        <v>1.84032954e-14</v>
+        <v>3.78714402e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.96984</v>
       </c>
       <c r="B547" t="n">
-        <v>1.387142964e-12</v>
+        <v>1.105405632e-13</v>
       </c>
       <c r="C547" t="n">
-        <v>1.64198592e-14</v>
+        <v>3.00387816e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97074</v>
       </c>
       <c r="B548" t="n">
-        <v>1.435169322000001e-12</v>
+        <v>1.121425632e-13</v>
       </c>
       <c r="C548" t="n">
-        <v>1.83278412e-14</v>
+        <v>8.09351226e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.97979</v>
       </c>
       <c r="B549" t="n">
-        <v>1.478873484e-12</v>
+        <v>1.094380668e-13</v>
       </c>
       <c r="C549" t="n">
-        <v>1.62149634e-14</v>
+        <v>3.52446408e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98023</v>
       </c>
       <c r="B550" t="n">
-        <v>1.52661789e-12</v>
+        <v>1.20619386e-13</v>
       </c>
       <c r="C550" t="n">
-        <v>1.8450234e-14</v>
+        <v>6.993579060000001e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.98967</v>
       </c>
       <c r="B551" t="n">
-        <v>1.51714206e-12</v>
+        <v>1.427668758e-13</v>
       </c>
       <c r="C551" t="n">
-        <v>1.7754966e-14</v>
+        <v>3.79517004e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99092</v>
       </c>
       <c r="B552" t="n">
-        <v>1.45252539e-12</v>
+        <v>1.7388909e-13</v>
       </c>
       <c r="C552" t="n">
-        <v>1.75590414e-14</v>
+        <v>8.35241148e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99494</v>
       </c>
       <c r="B553" t="n">
-        <v>1.342477602e-12</v>
+        <v>2.19437154e-13</v>
       </c>
       <c r="C553" t="n">
-        <v>1.65247902e-14</v>
+        <v>9.5793192e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99885</v>
       </c>
       <c r="B554" t="n">
-        <v>1.143885672e-12</v>
+        <v>2.80417284e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>1.75950864e-14</v>
+        <v>9.093336479999999e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.9989</v>
       </c>
       <c r="B555" t="n">
-        <v>9.801484559999999e-13</v>
+        <v>2.91320496e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>1.307196756e-14</v>
+        <v>1.195005492e-14</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99991</v>
       </c>
       <c r="B556" t="n">
-        <v>8.4525525e-13</v>
+        <v>3.43270152e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>1.163655954e-14</v>
+        <v>1.235239722e-14</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.0165</v>
+        <v>2.99993</v>
       </c>
       <c r="B557" t="n">
-        <v>7.626993839999999e-13</v>
+        <v>3.147689700000001e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.282271238e-14</v>
+        <v>7.63212024e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00139</v>
       </c>
       <c r="B558" t="n">
-        <v>6.59186154e-13</v>
+        <v>3.65177502e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>9.80505702e-15</v>
+        <v>8.56647072e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00252</v>
       </c>
       <c r="B559" t="n">
-        <v>6.00359112e-13</v>
+        <v>3.71390058e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>8.47392318e-15</v>
+        <v>9.573231600000001e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00336</v>
       </c>
       <c r="B560" t="n">
-        <v>5.35862592e-13</v>
+        <v>4.54312782e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>8.558604900000001e-15</v>
+        <v>1.39570245e-14</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00403</v>
       </c>
       <c r="B561" t="n">
-        <v>4.90815954e-13</v>
+        <v>4.46347638e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.101705012e-14</v>
+        <v>8.45418654e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00434</v>
       </c>
       <c r="B562" t="n">
-        <v>4.57934904e-13</v>
+        <v>4.7681127e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.102451544e-14</v>
+        <v>1.457890488e-14</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.0055</v>
       </c>
       <c r="B563" t="n">
-        <v>3.92326596e-13</v>
+        <v>5.296468319999999e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>1.075451436e-14</v>
+        <v>8.97557346e-15</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00638</v>
       </c>
       <c r="B564" t="n">
-        <v>3.12925068e-13</v>
+        <v>5.781553919999998e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>9.86665392e-15</v>
+        <v>9.785993219999999e-15</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00754</v>
       </c>
       <c r="B565" t="n">
-        <v>2.6158257e-13</v>
+        <v>6.49396332e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>8.947682639999998e-15</v>
+        <v>9.69552828e-15</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00807</v>
       </c>
       <c r="B566" t="n">
-        <v>2.57047308e-13</v>
+        <v>6.57307008e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>8.625376260000001e-15</v>
+        <v>1.131255504e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00843</v>
       </c>
       <c r="B567" t="n">
-        <v>2.63826972e-13</v>
+        <v>7.25045976e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>6.3712341e-15</v>
+        <v>1.071323082e-14</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.033</v>
+        <v>3.00955</v>
       </c>
       <c r="B568" t="n">
-        <v>2.91753036e-13</v>
+        <v>9.058749300000002e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>1.044922122e-14</v>
+        <v>1.34715384e-14</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01001</v>
       </c>
       <c r="B569" t="n">
-        <v>3.48590394e-13</v>
+        <v>9.22282614e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>9.87115554e-15</v>
+        <v>1.071944658e-14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01047</v>
       </c>
       <c r="B570" t="n">
-        <v>4.2263964e-13</v>
+        <v>1.071188514e-12</v>
       </c>
       <c r="C570" t="n">
-        <v>8.235273239999999e-15</v>
+        <v>1.25623233e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01128</v>
       </c>
       <c r="B571" t="n">
-        <v>5.59717974e-13</v>
+        <v>1.133690544e-12</v>
       </c>
       <c r="C571" t="n">
-        <v>8.70049404e-15</v>
+        <v>1.71976302e-14</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01174</v>
       </c>
       <c r="B572" t="n">
-        <v>8.37591282e-13</v>
+        <v>1.219011462e-12</v>
       </c>
       <c r="C572" t="n">
-        <v>1.389417804e-14</v>
+        <v>1.69977006e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01205</v>
       </c>
       <c r="B573" t="n">
-        <v>1.550875374e-12</v>
+        <v>1.318140018e-12</v>
       </c>
       <c r="C573" t="n">
-        <v>2.0782746e-14</v>
+        <v>1.84032954e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01229</v>
       </c>
       <c r="B574" t="n">
-        <v>2.03578956e-12</v>
+        <v>1.387142964e-12</v>
       </c>
       <c r="C574" t="n">
-        <v>2.4933528e-14</v>
+        <v>1.64198592e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01249</v>
       </c>
       <c r="B575" t="n">
-        <v>8.765070660000001e-13</v>
+        <v>1.435169322000001e-12</v>
       </c>
       <c r="C575" t="n">
-        <v>1.544267124e-14</v>
+        <v>1.83278412e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01268</v>
       </c>
       <c r="B576" t="n">
-        <v>4.577747039999999e-13</v>
+        <v>1.478873484e-12</v>
       </c>
       <c r="C576" t="n">
-        <v>1.151913294e-14</v>
+        <v>1.62149634e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01299</v>
       </c>
       <c r="B577" t="n">
-        <v>3.95360784e-13</v>
+        <v>1.52661789e-12</v>
       </c>
       <c r="C577" t="n">
-        <v>1.139874264e-14</v>
+        <v>1.8450234e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01352</v>
       </c>
       <c r="B578" t="n">
-        <v>3.89877138e-13</v>
+        <v>1.51714206e-12</v>
       </c>
       <c r="C578" t="n">
-        <v>1.135036224e-14</v>
+        <v>1.7754966e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01388</v>
       </c>
       <c r="B579" t="n">
-        <v>3.79360008e-13</v>
+        <v>1.45252539e-12</v>
       </c>
       <c r="C579" t="n">
-        <v>8.42144166e-15</v>
+        <v>1.75590414e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01436</v>
       </c>
       <c r="B580" t="n">
-        <v>3.67934544e-13</v>
+        <v>1.342477602e-12</v>
       </c>
       <c r="C580" t="n">
-        <v>9.81558216e-15</v>
+        <v>1.65247902e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01441</v>
       </c>
       <c r="B581" t="n">
-        <v>3.56577966e-13</v>
+        <v>1.053063486e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>1.072790514e-14</v>
+        <v>1.73323584e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01501</v>
       </c>
       <c r="B582" t="n">
-        <v>2.54615472e-13</v>
+        <v>1.143885672e-12</v>
       </c>
       <c r="C582" t="n">
-        <v>9.10772244e-15</v>
+        <v>1.75950864e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01551</v>
       </c>
       <c r="B583" t="n">
-        <v>2.26439496e-13</v>
+        <v>9.801484559999999e-13</v>
       </c>
       <c r="C583" t="n">
-        <v>8.687694060000001e-15</v>
+        <v>1.307196756e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01607</v>
       </c>
       <c r="B584" t="n">
-        <v>2.29661118e-13</v>
+        <v>8.4525525e-13</v>
       </c>
       <c r="C584" t="n">
-        <v>8.64634644e-15</v>
+        <v>1.163655954e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.0165</v>
       </c>
       <c r="B585" t="n">
-        <v>2.51238456e-13</v>
+        <v>7.626993839999999e-13</v>
       </c>
       <c r="C585" t="n">
-        <v>8.86820742e-15</v>
+        <v>1.282271238e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01703</v>
       </c>
       <c r="B586" t="n">
-        <v>2.414181959999999e-13</v>
+        <v>6.59186154e-13</v>
       </c>
       <c r="C586" t="n">
-        <v>9.826443719999999e-15</v>
+        <v>9.80505702e-15</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01753</v>
       </c>
       <c r="B587" t="n">
-        <v>2.4305544e-13</v>
+        <v>6.00359112e-13</v>
       </c>
       <c r="C587" t="n">
-        <v>1.001677734e-14</v>
+        <v>8.47392318e-15</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01809</v>
       </c>
       <c r="B588" t="n">
-        <v>2.86202106e-13</v>
+        <v>5.35862592e-13</v>
       </c>
       <c r="C588" t="n">
-        <v>9.81952308e-15</v>
+        <v>8.558604900000001e-15</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01852</v>
       </c>
       <c r="B589" t="n">
-        <v>2.80604718e-13</v>
+        <v>4.21375662e-13</v>
       </c>
       <c r="C589" t="n">
-        <v>1.143624546e-14</v>
+        <v>1.109043774e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01857</v>
       </c>
       <c r="B590" t="n">
-        <v>2.98305216e-13</v>
+        <v>4.90815954e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>1.122164154e-14</v>
+        <v>1.101705012e-14</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.062</v>
+        <v>3.01898</v>
       </c>
       <c r="B591" t="n">
-        <v>2.96640738e-13</v>
+        <v>4.57934904e-13</v>
       </c>
       <c r="C591" t="n">
-        <v>1.1008944e-14</v>
+        <v>1.102451544e-14</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02004</v>
       </c>
       <c r="B592" t="n">
-        <v>3.04391214e-13</v>
+        <v>3.92326596e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>1.137753216e-14</v>
+        <v>1.075451436e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02218</v>
       </c>
       <c r="B593" t="n">
-        <v>3.17775924e-13</v>
+        <v>3.12925068e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>9.77210388e-15</v>
+        <v>9.86665392e-15</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02247</v>
       </c>
       <c r="B594" t="n">
-        <v>2.98350072e-13</v>
+        <v>2.89402902e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>1.059032538e-14</v>
+        <v>7.412854500000001e-15</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02586</v>
       </c>
       <c r="B595" t="n">
-        <v>2.81165418e-13</v>
+        <v>2.6158257e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>1.120969062e-14</v>
+        <v>8.947682639999998e-15</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02634</v>
       </c>
       <c r="B596" t="n">
-        <v>3.05418096e-13</v>
+        <v>2.70446436e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>1.129921038e-14</v>
+        <v>8.336679839999999e-15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.02991</v>
       </c>
       <c r="B597" t="n">
-        <v>3.33507564e-13</v>
+        <v>2.57047308e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>6.4876995e-15</v>
+        <v>8.625376260000001e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03034</v>
       </c>
       <c r="B598" t="n">
-        <v>3.3018822e-13</v>
+        <v>2.58003702e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>6.16467222e-15</v>
+        <v>7.741504800000001e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03203</v>
       </c>
       <c r="B599" t="n">
-        <v>3.122330040000001e-13</v>
+        <v>2.63826972e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>6.55149114e-15</v>
+        <v>6.3712341e-15</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.03244</v>
       </c>
       <c r="B600" t="n">
-        <v>3.19196898e-13</v>
+        <v>3.1723605e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>7.08929856e-15</v>
+        <v>8.11111824e-15</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.033</v>
       </c>
       <c r="B601" t="n">
-        <v>3.12282666e-13</v>
+        <v>2.91753036e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>7.8677424e-15</v>
+        <v>1.044922122e-14</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0335</v>
       </c>
       <c r="B602" t="n">
-        <v>2.87410014e-13</v>
+        <v>5.2275663e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>6.2988237e-15</v>
+        <v>9.868400099999999e-15</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.0336</v>
       </c>
       <c r="B603" t="n">
-        <v>2.96581464e-13</v>
+        <v>3.48590394e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>6.471375120000001e-15</v>
+        <v>9.87115554e-15</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03367</v>
       </c>
       <c r="B604" t="n">
-        <v>2.84686614e-13</v>
+        <v>7.67266686e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>6.2754345e-15</v>
+        <v>1.174325274e-14</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03399</v>
       </c>
       <c r="B605" t="n">
-        <v>2.71415646e-13</v>
+        <v>4.2263964e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>6.30830754e-15</v>
+        <v>8.235273239999999e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03401</v>
       </c>
       <c r="B606" t="n">
-        <v>2.66593626e-13</v>
+        <v>1.98853056e-12</v>
       </c>
       <c r="C606" t="n">
-        <v>6.0517152e-15</v>
+        <v>2.03508468e-14</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03423</v>
       </c>
       <c r="B607" t="n">
-        <v>2.47536234e-13</v>
+        <v>1.099318032e-12</v>
       </c>
       <c r="C607" t="n">
-        <v>6.17937858e-15</v>
+        <v>1.155943926e-14</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03432</v>
       </c>
       <c r="B608" t="n">
-        <v>2.49745392e-13</v>
+        <v>5.59717974e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>6.99947442e-15</v>
+        <v>8.70049404e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03444</v>
       </c>
       <c r="B609" t="n">
-        <v>2.4304743e-13</v>
+        <v>1.66921992e-12</v>
       </c>
       <c r="C609" t="n">
-        <v>5.6396808e-15</v>
+        <v>1.278328716e-14</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03452</v>
       </c>
       <c r="B610" t="n">
-        <v>2.20637052e-13</v>
+        <v>8.37591282e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>5.95096542e-15</v>
+        <v>1.389417804e-14</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03483</v>
       </c>
       <c r="B611" t="n">
-        <v>2.32953228e-13</v>
+        <v>1.550875374e-12</v>
       </c>
       <c r="C611" t="n">
-        <v>6.2969814e-15</v>
+        <v>2.0782746e-14</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03488</v>
       </c>
       <c r="B612" t="n">
-        <v>2.2579389e-13</v>
+        <v>1.062651456e-12</v>
       </c>
       <c r="C612" t="n">
-        <v>6.6052062e-15</v>
+        <v>1.245407616e-14</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03505</v>
       </c>
       <c r="B613" t="n">
-        <v>2.317293e-13</v>
+        <v>2.03578956e-12</v>
       </c>
       <c r="C613" t="n">
-        <v>6.6663225e-15</v>
+        <v>2.4933528e-14</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03594</v>
       </c>
       <c r="B614" t="n">
-        <v>2.60054262e-13</v>
+        <v>8.765070660000001e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>7.01672796e-15</v>
+        <v>1.544267124e-14</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03698</v>
       </c>
       <c r="B615" t="n">
-        <v>3.16840356e-13</v>
+        <v>4.577747039999999e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>6.24645432e-15</v>
+        <v>1.151913294e-14</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03799</v>
       </c>
       <c r="B616" t="n">
-        <v>6.430956660000003e-13</v>
+        <v>3.95360784e-13</v>
       </c>
       <c r="C616" t="n">
-        <v>1.01146275e-14</v>
+        <v>1.139874264e-14</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03879</v>
       </c>
       <c r="B617" t="n">
-        <v>8.9212977e-13</v>
+        <v>3.67892892e-13</v>
       </c>
       <c r="C617" t="n">
-        <v>9.697162319999999e-15</v>
+        <v>7.496735219999999e-15</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.03898</v>
       </c>
       <c r="B618" t="n">
-        <v>1.544307174e-12</v>
+        <v>3.89877138e-13</v>
       </c>
       <c r="C618" t="n">
-        <v>1.47505752e-14</v>
+        <v>1.135036224e-14</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04002</v>
       </c>
       <c r="B619" t="n">
-        <v>2.56475394e-12</v>
+        <v>3.79360008e-13</v>
       </c>
       <c r="C619" t="n">
-        <v>1.9876815e-14</v>
+        <v>8.42144166e-15</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04202</v>
       </c>
       <c r="B620" t="n">
-        <v>3.60144018e-12</v>
+        <v>3.67934544e-13</v>
       </c>
       <c r="C620" t="n">
-        <v>2.11210884e-14</v>
+        <v>9.81558216e-15</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04296</v>
       </c>
       <c r="B621" t="n">
-        <v>3.73318866e-12</v>
+        <v>3.6981369e-13</v>
       </c>
       <c r="C621" t="n">
-        <v>2.2342293e-14</v>
+        <v>8.19674514e-15</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04591</v>
       </c>
       <c r="B622" t="n">
-        <v>3.0176874e-12</v>
+        <v>3.56577966e-13</v>
       </c>
       <c r="C622" t="n">
-        <v>2.22115698e-14</v>
+        <v>1.072790514e-14</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04695</v>
       </c>
       <c r="B623" t="n">
-        <v>2.3888223e-12</v>
+        <v>3.05732088e-13</v>
       </c>
       <c r="C623" t="n">
-        <v>1.85642964e-14</v>
+        <v>8.20866402e-15</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.04891</v>
       </c>
       <c r="B624" t="n">
-        <v>1.572734664e-12</v>
+        <v>2.58964902e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>1.64456514e-14</v>
+        <v>7.62654528e-15</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05</v>
       </c>
       <c r="B625" t="n">
-        <v>1.212936678e-12</v>
+        <v>2.54615472e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>1.401947046e-14</v>
+        <v>9.10772244e-15</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.0529</v>
       </c>
       <c r="B626" t="n">
-        <v>7.63450722e-13</v>
+        <v>2.24299224e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>1.099838682e-14</v>
+        <v>6.92506152e-15</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05401</v>
       </c>
       <c r="B627" t="n">
-        <v>6.21394974e-13</v>
+        <v>2.26439496e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>1.09916424e-14</v>
+        <v>8.687694060000001e-15</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05694</v>
       </c>
       <c r="B628" t="n">
-        <v>4.91657004e-13</v>
+        <v>2.16068148e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>9.682664219999999e-15</v>
+        <v>7.843151699999999e-15</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05801</v>
       </c>
       <c r="B629" t="n">
-        <v>4.24243242e-13</v>
+        <v>2.29661118e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>9.3239604e-15</v>
+        <v>8.64634644e-15</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.05997</v>
       </c>
       <c r="B630" t="n">
-        <v>3.72517866e-13</v>
+        <v>2.51238456e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>8.874999900000002e-15</v>
+        <v>8.86820742e-15</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06048</v>
       </c>
       <c r="B631" t="n">
-        <v>3.41126676e-13</v>
+        <v>2.414181959999999e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>7.1823267e-15</v>
+        <v>9.826443719999999e-15</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06094</v>
       </c>
       <c r="B632" t="n">
-        <v>2.99658906e-13</v>
+        <v>2.9774772e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>1.05914628e-14</v>
+        <v>7.184233079999999e-15</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06096</v>
       </c>
       <c r="B633" t="n">
-        <v>3.04657146e-13</v>
+        <v>2.4305544e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>8.06648652e-15</v>
+        <v>1.001677734e-14</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.0613</v>
       </c>
       <c r="B634" t="n">
-        <v>3.10462794e-13</v>
+        <v>2.86202106e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>7.832274120000001e-15</v>
+        <v>9.81952308e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06147</v>
       </c>
       <c r="B635" t="n">
-        <v>2.98127394e-13</v>
+        <v>2.80604718e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>8.35261974e-15</v>
+        <v>1.143624546e-14</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06178</v>
       </c>
       <c r="B636" t="n">
-        <v>2.99759832e-13</v>
+        <v>2.98305216e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>8.063058240000001e-15</v>
+        <v>1.122164154e-14</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.062</v>
       </c>
       <c r="B637" t="n">
-        <v>3.00756276e-13</v>
+        <v>2.96640738e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>8.960226300000001e-15</v>
+        <v>1.1008944e-14</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06227</v>
       </c>
       <c r="B638" t="n">
-        <v>2.98422162e-13</v>
+        <v>3.04391214e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>7.645705200000001e-15</v>
+        <v>1.137753216e-14</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06258</v>
       </c>
       <c r="B639" t="n">
-        <v>2.85710292e-13</v>
+        <v>3.17775924e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>7.395809219999999e-15</v>
+        <v>9.77210388e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.0628</v>
       </c>
       <c r="B640" t="n">
-        <v>3.06840672e-13</v>
+        <v>2.98350072e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>7.45553178e-15</v>
+        <v>1.059032538e-14</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06292</v>
       </c>
       <c r="B641" t="n">
-        <v>2.86118802e-13</v>
+        <v>3.19129614e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>7.27264746e-15</v>
+        <v>7.28456634e-15</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06312</v>
       </c>
       <c r="B642" t="n">
-        <v>3.11473656e-13</v>
+        <v>2.81165418e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>8.4853134e-15</v>
+        <v>1.120969062e-14</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06324</v>
       </c>
       <c r="B643" t="n">
-        <v>3.12779286e-13</v>
+        <v>3.05418096e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>7.49925036e-15</v>
+        <v>1.129921038e-14</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06353</v>
       </c>
       <c r="B644" t="n">
-        <v>3.35703906e-13</v>
+        <v>3.33507564e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>7.948947779999999e-15</v>
+        <v>6.4876995e-15</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06375</v>
       </c>
       <c r="B645" t="n">
-        <v>3.02036274e-13</v>
+        <v>3.3018822e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>8.182711619999999e-15</v>
+        <v>6.16467222e-15</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06389</v>
       </c>
       <c r="B646" t="n">
-        <v>3.24795888e-13</v>
+        <v>3.0471642e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>1.055288664e-14</v>
+        <v>8.681638499999999e-15</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06404</v>
       </c>
       <c r="B647" t="n">
-        <v>3.2437296e-13</v>
+        <v>3.122330040000001e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>8.23522518e-15</v>
+        <v>6.55149114e-15</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06418</v>
       </c>
       <c r="B648" t="n">
-        <v>3.93526494e-13</v>
+        <v>3.19196898e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>1.059380172e-14</v>
+        <v>7.08929856e-15</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06445</v>
       </c>
       <c r="B649" t="n">
-        <v>3.937716e-13</v>
+        <v>3.12282666e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>8.463542219999999e-15</v>
+        <v>7.8677424e-15</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06455</v>
       </c>
       <c r="B650" t="n">
-        <v>4.94671968e-13</v>
+        <v>2.67864012e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>1.016847072e-14</v>
+        <v>8.89066746e-15</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06481</v>
       </c>
       <c r="B651" t="n">
-        <v>6.52907916e-13</v>
+        <v>2.87410014e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>1.104801678e-14</v>
+        <v>6.2988237e-15</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06486</v>
       </c>
       <c r="B652" t="n">
-        <v>7.515046080000001e-13</v>
+        <v>2.7580032e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>1.30337118e-14</v>
+        <v>8.808260580000002e-15</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06498</v>
       </c>
       <c r="B653" t="n">
-        <v>9.41428116e-13</v>
+        <v>2.96581464e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>1.240691328e-14</v>
+        <v>6.471375120000001e-15</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06532</v>
       </c>
       <c r="B654" t="n">
-        <v>1.414660518e-12</v>
+        <v>2.84686614e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>1.7012439e-14</v>
+        <v>6.2754345e-15</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06547</v>
       </c>
       <c r="B655" t="n">
-        <v>1.69068672e-12</v>
+        <v>2.71415646e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>1.8157068e-14</v>
+        <v>6.30830754e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06583</v>
       </c>
       <c r="B656" t="n">
-        <v>1.74573144e-12</v>
+        <v>2.66593626e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>1.86783588e-14</v>
+        <v>6.0517152e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06603</v>
       </c>
       <c r="B657" t="n">
-        <v>1.69078284e-12</v>
+        <v>2.47536234e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>1.95769206e-14</v>
+        <v>6.17937858e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.0662</v>
       </c>
       <c r="B658" t="n">
-        <v>1.439610066e-12</v>
+        <v>2.49745392e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>1.86221286e-14</v>
+        <v>6.99947442e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06658</v>
       </c>
       <c r="B659" t="n">
-        <v>9.102868380000003e-13</v>
+        <v>2.4304743e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>1.298203128e-14</v>
+        <v>5.6396808e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06707</v>
       </c>
       <c r="B660" t="n">
-        <v>6.51182562e-13</v>
+        <v>2.20637052e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>1.134010944e-14</v>
+        <v>5.95096542e-15</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06758</v>
       </c>
       <c r="B661" t="n">
-        <v>5.19988374e-13</v>
+        <v>2.32953228e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>1.069189218e-14</v>
+        <v>6.2969814e-15</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06787</v>
       </c>
       <c r="B662" t="n">
-        <v>4.708486259999999e-13</v>
+        <v>2.2579389e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>8.33597496e-15</v>
+        <v>6.6052062e-15</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06913</v>
       </c>
       <c r="B663" t="n">
-        <v>4.41048222e-13</v>
+        <v>2.317293e-13</v>
       </c>
       <c r="C663" t="n">
-        <v>8.9205768e-15</v>
+        <v>6.6663225e-15</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.06998</v>
       </c>
       <c r="B664" t="n">
-        <v>3.92488398e-13</v>
+        <v>2.60054262e-13</v>
       </c>
       <c r="C664" t="n">
-        <v>8.971151939999999e-15</v>
+        <v>7.01672796e-15</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07042</v>
       </c>
       <c r="B665" t="n">
-        <v>3.74855184e-13</v>
+        <v>3.66268464e-13</v>
       </c>
       <c r="C665" t="n">
-        <v>9.856321020000001e-15</v>
+        <v>9.215857439999999e-15</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07095</v>
       </c>
       <c r="B666" t="n">
-        <v>3.68429562e-13</v>
+        <v>3.16840356e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>9.417709439999998e-15</v>
+        <v>6.24645432e-15</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07097</v>
       </c>
       <c r="B667" t="n">
-        <v>3.66479928e-13</v>
+        <v>5.049712259999999e-13</v>
       </c>
       <c r="C667" t="n">
-        <v>1.026327708e-14</v>
+        <v>1.066255956e-14</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07192</v>
       </c>
       <c r="B668" t="n">
-        <v>3.54759696e-13</v>
+        <v>1.489182354e-12</v>
       </c>
       <c r="C668" t="n">
-        <v>9.96874938e-15</v>
+        <v>2.76588504e-14</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07204</v>
       </c>
       <c r="B669" t="n">
-        <v>3.8533707e-13</v>
+        <v>2.10909708e-12</v>
       </c>
       <c r="C669" t="n">
-        <v>1.083149046e-14</v>
+        <v>2.74364928e-14</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07209</v>
       </c>
       <c r="B670" t="n">
-        <v>4.0581864e-13</v>
+        <v>6.430956660000003e-13</v>
       </c>
       <c r="C670" t="n">
-        <v>1.07362836e-14</v>
+        <v>1.01146275e-14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07241</v>
       </c>
       <c r="B671" t="n">
-        <v>4.6314621e-13</v>
+        <v>3.5769456e-12</v>
       </c>
       <c r="C671" t="n">
-        <v>1.121971914e-14</v>
+        <v>4.81698972e-14</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07245</v>
       </c>
       <c r="B672" t="n">
-        <v>4.7085984e-13</v>
+        <v>8.9212977e-13</v>
       </c>
       <c r="C672" t="n">
-        <v>1.12466007e-14</v>
+        <v>9.697162319999999e-15</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.0726</v>
       </c>
       <c r="B673" t="n">
-        <v>3.87722448e-13</v>
+        <v>3.87733662e-12</v>
       </c>
       <c r="C673" t="n">
-        <v>8.023905360000001e-15</v>
+        <v>3.06193464e-14</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07279</v>
       </c>
       <c r="B674" t="n">
-        <v>3.392779680000001e-13</v>
+        <v>1.544307174e-12</v>
       </c>
       <c r="C674" t="n">
-        <v>7.78113828e-15</v>
+        <v>1.47505752e-14</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07292</v>
       </c>
       <c r="B675" t="n">
-        <v>2.84007366e-13</v>
+        <v>3.27527298e-12</v>
       </c>
       <c r="C675" t="n">
-        <v>6.94364472e-15</v>
+        <v>2.66963688e-14</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B676" t="n">
-        <v>2.32032078e-13</v>
+        <v>2.7691371e-12</v>
       </c>
       <c r="C676" t="n">
-        <v>8.504233019999998e-15</v>
+        <v>2.62734408e-14</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07309</v>
       </c>
       <c r="B677" t="n">
-        <v>2.17245618e-13</v>
+        <v>2.56475394e-12</v>
       </c>
       <c r="C677" t="n">
-        <v>8.10208296e-15</v>
+        <v>1.9876815e-14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07328</v>
       </c>
       <c r="B678" t="n">
-        <v>2.11794012e-13</v>
+        <v>3.60144018e-12</v>
       </c>
       <c r="C678" t="n">
-        <v>6.57544104e-15</v>
+        <v>2.11210884e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.0734</v>
       </c>
       <c r="B679" t="n">
-        <v>2.04434424e-13</v>
+        <v>2.43268506e-12</v>
       </c>
       <c r="C679" t="n">
-        <v>7.24765626e-15</v>
+        <v>2.61297414e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07362</v>
       </c>
       <c r="B680" t="n">
-        <v>2.076192e-13</v>
+        <v>3.73318866e-12</v>
       </c>
       <c r="C680" t="n">
-        <v>5.627633760000002e-15</v>
+        <v>2.2342293e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07374</v>
       </c>
       <c r="B681" t="n">
-        <v>2.07028062e-13</v>
+        <v>1.72460106e-12</v>
       </c>
       <c r="C681" t="n">
-        <v>7.315661159999999e-15</v>
+        <v>2.189133e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07384</v>
       </c>
       <c r="B682" t="n">
-        <v>2.79806922e-13</v>
+        <v>3.0176874e-12</v>
       </c>
       <c r="C682" t="n">
-        <v>9.510513299999999e-15</v>
+        <v>2.22115698e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07398</v>
       </c>
       <c r="B683" t="n">
-        <v>7.349623560000001e-13</v>
+        <v>1.204646328e-12</v>
       </c>
       <c r="C683" t="n">
-        <v>1.097389224e-14</v>
+        <v>1.367512056e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07401</v>
       </c>
       <c r="B684" t="n">
-        <v>3.05395668e-13</v>
+        <v>2.3888223e-12</v>
       </c>
       <c r="C684" t="n">
-        <v>5.40373824e-15</v>
+        <v>1.85642964e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.0743</v>
       </c>
       <c r="B685" t="n">
-        <v>2.62414008e-13</v>
+        <v>1.572734664e-12</v>
       </c>
       <c r="C685" t="n">
-        <v>6.77472984e-15</v>
+        <v>1.64456514e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B686" t="n">
-        <v>2.39694444e-13</v>
+        <v>1.212936678e-12</v>
       </c>
       <c r="C686" t="n">
-        <v>6.31272906e-15</v>
+        <v>1.401947046e-14</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07452</v>
       </c>
       <c r="B687" t="n">
-        <v>2.494890719999999e-13</v>
+        <v>7.624991339999999e-13</v>
       </c>
       <c r="C687" t="n">
-        <v>5.18420016e-15</v>
+        <v>1.31071635e-14</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07491</v>
       </c>
       <c r="B688" t="n">
-        <v>2.4768522e-13</v>
+        <v>5.834435939999997e-13</v>
       </c>
       <c r="C688" t="n">
-        <v>4.866892019999999e-15</v>
+        <v>1.271816586e-14</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07505</v>
       </c>
       <c r="B689" t="n">
-        <v>2.5187445e-13</v>
+        <v>7.63450722e-13</v>
       </c>
       <c r="C689" t="n">
-        <v>7.2557784e-15</v>
+        <v>1.099838682e-14</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07537</v>
       </c>
       <c r="B690" t="n">
-        <v>2.61497664e-13</v>
+        <v>6.21394974e-13</v>
       </c>
       <c r="C690" t="n">
-        <v>7.07508882e-15</v>
+        <v>1.09916424e-14</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.0759</v>
       </c>
       <c r="B691" t="n">
-        <v>3.00429468e-13</v>
+        <v>4.11302286e-13</v>
       </c>
       <c r="C691" t="n">
-        <v>7.29797508e-15</v>
+        <v>9.61541226e-15</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07593</v>
       </c>
       <c r="B692" t="n">
-        <v>3.52459224e-13</v>
+        <v>4.91657004e-13</v>
       </c>
       <c r="C692" t="n">
-        <v>8.044587179999999e-15</v>
+        <v>9.682664219999999e-15</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07644</v>
       </c>
       <c r="B693" t="n">
-        <v>5.100463619999999e-13</v>
+        <v>4.24243242e-13</v>
       </c>
       <c r="C693" t="n">
-        <v>1.09266813e-14</v>
+        <v>9.3239604e-15</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07697</v>
       </c>
       <c r="B694" t="n">
-        <v>6.195142260000001e-13</v>
+        <v>3.72517866e-13</v>
       </c>
       <c r="C694" t="n">
-        <v>8.99848206e-15</v>
+        <v>8.874999900000002e-15</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07784</v>
       </c>
       <c r="B695" t="n">
-        <v>7.44973254e-13</v>
+        <v>3.26356236e-13</v>
       </c>
       <c r="C695" t="n">
-        <v>1.233583254e-14</v>
+        <v>8.91695628e-15</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.07801</v>
       </c>
       <c r="B696" t="n">
-        <v>8.769764520000001e-13</v>
+        <v>3.41126676e-13</v>
       </c>
       <c r="C696" t="n">
-        <v>1.224547974e-14</v>
+        <v>7.1823267e-15</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08001</v>
       </c>
       <c r="B697" t="n">
-        <v>8.545868999999999e-13</v>
+        <v>2.99658906e-13</v>
       </c>
       <c r="C697" t="n">
-        <v>1.56388842e-14</v>
+        <v>1.05914628e-14</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0819</v>
       </c>
       <c r="B698" t="n">
-        <v>3.24246402e-13</v>
+        <v>2.9096325e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>6.20025264e-15</v>
+        <v>1.022784084e-14</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B699" t="n">
-        <v>4.48225182e-13</v>
+        <v>3.04657146e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>1.05399585e-14</v>
+        <v>8.06648652e-15</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.0829</v>
       </c>
       <c r="B700" t="n">
-        <v>2.05847388e-13</v>
+        <v>3.10462794e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>3.3215868e-15</v>
+        <v>7.832274120000001e-15</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08356</v>
       </c>
       <c r="B701" t="n">
-        <v>1.82017638e-13</v>
+        <v>2.98127394e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>4.28618304e-15</v>
+        <v>8.35261974e-15</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08506</v>
       </c>
       <c r="B702" t="n">
-        <v>1.481976558e-13</v>
+        <v>2.99759832e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>7.48105164e-15</v>
+        <v>8.063058240000001e-15</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08579</v>
       </c>
       <c r="B703" t="n">
-        <v>1.114328772e-13</v>
+        <v>2.81250324e-13</v>
       </c>
       <c r="C703" t="n">
-        <v>8.482189499999999e-15</v>
+        <v>7.446240180000001e-15</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08604</v>
       </c>
       <c r="B704" t="n">
-        <v>1.394715618e-13</v>
+        <v>3.00756276e-13</v>
       </c>
       <c r="C704" t="n">
-        <v>7.766560079999999e-15</v>
+        <v>8.960226300000001e-15</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08798</v>
       </c>
       <c r="B705" t="n">
-        <v>1.214955198e-13</v>
+        <v>2.98422162e-13</v>
       </c>
       <c r="C705" t="n">
-        <v>7.492281659999999e-15</v>
+        <v>7.645705200000001e-15</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08898</v>
       </c>
       <c r="B706" t="n">
-        <v>1.308428694e-13</v>
+        <v>2.85710292e-13</v>
       </c>
       <c r="C706" t="n">
-        <v>5.38393752e-15</v>
+        <v>7.395809219999999e-15</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
+        <v>3.08959</v>
+      </c>
+      <c r="B707" t="n">
+        <v>2.96640738e-13</v>
+      </c>
+      <c r="C707" t="n">
+        <v>7.37378172e-15</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B708" t="n">
+        <v>3.06840672e-13</v>
+      </c>
+      <c r="C708" t="n">
+        <v>7.45553178e-15</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B709" t="n">
+        <v>2.86118802e-13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>7.27264746e-15</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B710" t="n">
+        <v>3.11473656e-13</v>
+      </c>
+      <c r="C710" t="n">
+        <v>8.4853134e-15</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B711" t="n">
+        <v>3.12779286e-13</v>
+      </c>
+      <c r="C711" t="n">
+        <v>7.49925036e-15</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B712" t="n">
+        <v>2.94370704e-13</v>
+      </c>
+      <c r="C712" t="n">
+        <v>7.325529480000001e-15</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B713" t="n">
+        <v>3.35703906e-13</v>
+      </c>
+      <c r="C713" t="n">
+        <v>7.948947779999999e-15</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B714" t="n">
+        <v>3.02036274e-13</v>
+      </c>
+      <c r="C714" t="n">
+        <v>8.182711619999999e-15</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B715" t="n">
+        <v>3.24795888e-13</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.055288664e-14</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B716" t="n">
+        <v>3.42786348e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>8.14567338e-15</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B717" t="n">
+        <v>3.2437296e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>8.23522518e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3.96224262e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>7.452375840000001e-15</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4.1913126e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>7.54340148e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.93526494e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.059380172e-14</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.937716e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>8.463542219999999e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B722" t="n">
+        <v>5.194773359999999e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.062448002e-14</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B723" t="n">
+        <v>7.3039986e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>2.09575242e-14</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4.94671968e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.016847072e-14</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B725" t="n">
+        <v>8.921505960000001e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.249169112e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B726" t="n">
+        <v>6.52907916e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.104801678e-14</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B727" t="n">
+        <v>7.515046080000001e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1.30337118e-14</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B728" t="n">
+        <v>9.41428116e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1.240691328e-14</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1.414660518e-12</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.7012439e-14</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1.69068672e-12</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.8157068e-14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1.74573144e-12</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.86783588e-14</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1.69078284e-12</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.95769206e-14</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1.439610066e-12</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.86221286e-14</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B734" t="n">
+        <v>9.102868380000003e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.298203128e-14</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B735" t="n">
+        <v>6.51182562e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.134010944e-14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B736" t="n">
+        <v>5.19988374e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.069189218e-14</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B737" t="n">
+        <v>3.93696306e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>8.791711919999999e-15</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B738" t="n">
+        <v>4.708486259999999e-13</v>
+      </c>
+      <c r="C738" t="n">
+        <v>8.33597496e-15</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B739" t="n">
+        <v>4.41048222e-13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>8.9205768e-15</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B740" t="n">
+        <v>3.92488398e-13</v>
+      </c>
+      <c r="C740" t="n">
+        <v>8.971151939999999e-15</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B741" t="n">
+        <v>3.74855184e-13</v>
+      </c>
+      <c r="C741" t="n">
+        <v>9.856321020000001e-15</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B742" t="n">
+        <v>3.68429562e-13</v>
+      </c>
+      <c r="C742" t="n">
+        <v>9.417709439999998e-15</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B743" t="n">
+        <v>3.66479928e-13</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.026327708e-14</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B744" t="n">
+        <v>3.54759696e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>9.96874938e-15</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B745" t="n">
+        <v>3.75774732e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>8.995117860000001e-15</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B746" t="n">
+        <v>3.8533707e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.083149046e-14</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B747" t="n">
+        <v>3.90059766e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>8.34158196e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.0581864e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1.07362836e-14</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.44172122e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>9.545356800000001e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.6314621e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1.121971914e-14</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B751" t="n">
+        <v>4.64240376e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>7.93986444e-15</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B752" t="n">
+        <v>4.7085984e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1.12466007e-14</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B753" t="n">
+        <v>4.65034968e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>9.9655614e-15</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B754" t="n">
+        <v>4.4856801e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>9.26822682e-15</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B755" t="n">
+        <v>4.401495e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>9.41293548e-15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.89745774e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1.2150369e-14</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B757" t="n">
+        <v>3.87722448e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>8.023905360000001e-15</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B758" t="n">
+        <v>3.6376614e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>9.316142639999999e-15</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B759" t="n">
+        <v>3.392779680000001e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>7.78113828e-15</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B760" t="n">
+        <v>3.07072962e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>8.73929448e-15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B761" t="n">
+        <v>2.84007366e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>6.94364472e-15</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B762" t="n">
+        <v>2.93387076e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>7.436900520000001e-15</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B763" t="n">
+        <v>2.49964866e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>8.20879218e-15</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B764" t="n">
+        <v>2.32032078e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>8.504233019999998e-15</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B765" t="n">
+        <v>2.19083112e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>7.84460952e-15</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B766" t="n">
+        <v>2.17245618e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>8.10208296e-15</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2.28360294e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>8.096524019999999e-15</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2.1019041e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>9.023601419999999e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2.09326932e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1.055535372e-14</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.10858444e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>5.347203660000001e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2.11794012e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>6.57544104e-15</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.04434424e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>7.24765626e-15</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.528612820000001e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1.145745594e-14</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.076192e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>5.627633760000002e-15</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.07028062e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>7.315661159999999e-15</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.53649466e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>1.128605796e-14</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2.7896427e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1.070595774e-14</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B778" t="n">
+        <v>5.30729784e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1.463193108e-14</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B779" t="n">
+        <v>9.92469438e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1.7470611e-14</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.79806922e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>9.510513299999999e-15</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B781" t="n">
+        <v>7.77767796e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>1.65776562e-14</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B782" t="n">
+        <v>7.349623560000001e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1.097389224e-14</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B783" t="n">
+        <v>3.05395668e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>5.40373824e-15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.8416276e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1.21817682e-14</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.62414008e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>6.77472984e-15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.53921806e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>9.49918716e-15</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.39694444e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>6.31272906e-15</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B788" t="n">
+        <v>2.43497592e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1.14308307e-14</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2.494890719999999e-13</v>
+      </c>
+      <c r="C789" t="n">
+        <v>5.18420016e-15</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2.62124046e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1.1491146e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B791" t="n">
+        <v>2.4768522e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>4.866892019999999e-15</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B792" t="n">
+        <v>2.61819666e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.162569798e-14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B793" t="n">
+        <v>2.5187445e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>7.2557784e-15</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B794" t="n">
+        <v>2.98481436e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.232588412e-14</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B795" t="n">
+        <v>2.61497664e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>7.07508882e-15</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2.84417478e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1.170914616e-14</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B797" t="n">
+        <v>3.00429468e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>7.29797508e-15</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B798" t="n">
+        <v>3.33001332e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1.181353248e-14</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B799" t="n">
+        <v>3.48060132e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1.26027738e-14</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B800" t="n">
+        <v>3.52459224e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>8.044587179999999e-15</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B801" t="n">
+        <v>4.52263824e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1.325770344e-14</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B802" t="n">
+        <v>5.08824036e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1.411677594e-14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B803" t="n">
+        <v>5.100463619999999e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1.09266813e-14</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B804" t="n">
+        <v>6.063233579999999e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1.516374702e-14</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B805" t="n">
+        <v>6.195142260000001e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>8.99848206e-15</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B806" t="n">
+        <v>7.581865500000001e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1.69549272e-14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B807" t="n">
+        <v>7.87698594e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1.6892289e-14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B808" t="n">
+        <v>7.44973254e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.233583254e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B809" t="n">
+        <v>8.764686180000002e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.7595567e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B810" t="n">
+        <v>9.666868499999998e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1.84784292e-14</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B811" t="n">
+        <v>1.055826936e-12</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1.90386486e-14</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B812" t="n">
+        <v>8.769764520000001e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.224547974e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B813" t="n">
+        <v>1.01849553e-12</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.94181624e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1.026390186e-12</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.9385802e-14</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B815" t="n">
+        <v>8.545868999999999e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1.56388842e-14</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B816" t="n">
+        <v>9.36799938e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.82893932e-14</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B817" t="n">
+        <v>9.414617580000001e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.82512656e-14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B818" t="n">
+        <v>8.306482139999997e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.554270012e-14</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B819" t="n">
+        <v>7.093704060000003e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1.70198082e-14</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B820" t="n">
+        <v>6.0844761e-13</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.534028742e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B821" t="n">
+        <v>4.98020148e-13</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1.427143302e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B822" t="n">
+        <v>3.24246402e-13</v>
+      </c>
+      <c r="C822" t="n">
+        <v>6.20025264e-15</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B823" t="n">
+        <v>4.48225182e-13</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1.05399585e-14</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B824" t="n">
+        <v>4.369198680000001e-13</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1.366638966e-14</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B825" t="n">
+        <v>3.39973236e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1.18297287e-14</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B826" t="n">
+        <v>3.33815148e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1.228850946e-14</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B827" t="n">
+        <v>2.77959816e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1.055618676e-14</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B828" t="n">
+        <v>2.45035512e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1.002196782e-14</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B829" t="n">
+        <v>2.20087566e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>9.870114239999998e-15</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B830" t="n">
+        <v>2.05847388e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.3215868e-15</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B831" t="n">
+        <v>2.01922488e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>9.822278519999999e-15</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1.89281106e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>9.823127580000001e-15</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1.82017638e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>4.28618304e-15</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1.63166904e-13</v>
+      </c>
+      <c r="C834" t="n">
+        <v>8.136013319999999e-15</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1.76723028e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>9.6847308e-15</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1.576561842e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>8.197674300000001e-15</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1.481976558e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>7.48105164e-15</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1.114328772e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>8.482189499999999e-15</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1.53361863e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>9.36718236e-15</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1.394715618e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>7.766560079999999e-15</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1.61262126e-13</v>
+      </c>
+      <c r="C841" t="n">
+        <v>9.976438980000001e-15</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1.371270348e-13</v>
+      </c>
+      <c r="C842" t="n">
+        <v>9.00045252e-15</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.214955198e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>7.492281659999999e-15</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1.308428694e-13</v>
+      </c>
+      <c r="C844" t="n">
+        <v>5.38393752e-15</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1.36600938e-13</v>
+      </c>
+      <c r="C845" t="n">
+        <v>9.604791e-15</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B707" t="n">
+      <c r="B846" t="n">
         <v>1.198323234e-13</v>
       </c>
-      <c r="C707" t="n">
+      <c r="C846" t="n">
         <v>7.541591219999999e-15</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1.495324422e-13</v>
+      </c>
+      <c r="C847" t="n">
+        <v>8.52659694e-15</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1.368575784e-13</v>
+      </c>
+      <c r="C848" t="n">
+        <v>7.63828794e-15</v>
       </c>
     </row>
   </sheetData>
